--- a/rnaSample/rnaSample_J.PLAGGENBERG_06.21.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_06.21.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -81,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -109,6 +109,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -166,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,6 +185,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,15 +197,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,8 +228,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -234,7 +244,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -280,13 +290,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -295,36 +305,39 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7" t="n">
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="8" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -333,36 +346,39 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="n">
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="8" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -371,36 +387,39 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="n">
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="8" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -409,36 +428,39 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7" t="n">
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="8" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -447,36 +469,39 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="n">
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="8" t="n">
         <v>7.7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -485,36 +510,39 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="n">
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -523,36 +551,39 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="n">
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -561,36 +592,39 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="n">
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="8" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -599,36 +633,39 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="n">
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="8" t="n">
         <v>8.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -637,36 +674,39 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7" t="n">
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="8" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -675,36 +715,39 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="n">
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -713,25 +756,28 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="F13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>16</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_J.PLAGGENBERG_06.21.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_06.21.19.xlsx
@@ -115,6 +115,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -229,7 +230,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,8 +312,7 @@
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="n">
@@ -352,8 +352,7 @@
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="6" t="n">
@@ -393,8 +392,7 @@
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
@@ -434,8 +432,7 @@
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
@@ -475,8 +472,7 @@
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
@@ -516,8 +512,7 @@
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
@@ -557,8 +552,7 @@
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
@@ -598,8 +592,7 @@
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
@@ -639,8 +632,7 @@
       <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
@@ -680,8 +672,7 @@
       <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
@@ -721,8 +712,7 @@
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
@@ -762,8 +752,7 @@
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
